--- a/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.089702322135758</v>
+        <v>2.632504704809572</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.796550143536274</v>
+        <v>-3.371263307453135</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.06896669441851686</v>
+        <v>-0.6293401620338402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.765528177623585</v>
+        <v>9.028668761435506</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0603553844889924</v>
+        <v>0.05006965484691205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.07125563515101543</v>
+        <v>-0.06261757269921156</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.004531963898259699</v>
+        <v>-0.0123040426948327</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1304836247257904</v>
+        <v>0.1361689334490612</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.10386092336277</v>
+        <v>20.25809849397474</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.02972440418271</v>
+        <v>13.97271989595245</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.76873845901382</v>
+        <v>16.78188525154524</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.69294680623821</v>
+        <v>22.69653015463832</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4887310136918108</v>
+        <v>0.5004856894403709</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2803807664967714</v>
+        <v>0.2995620338900093</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3982792353704037</v>
+        <v>0.4215523473638104</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3917541929931763</v>
+        <v>0.3977808315327797</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.1769012315294627</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2317099101086954</v>
+        <v>0.2317099101086956</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.422723333582824</v>
+        <v>3.606709821364401</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.050628999950874</v>
+        <v>6.471768971377233</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.680608996539325</v>
+        <v>1.511293556582965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.401164095328408</v>
+        <v>3.592498015228444</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06541234464727796</v>
+        <v>0.06993305475140794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.130770815285302</v>
+        <v>0.1256654643453076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03540074147016131</v>
+        <v>0.03101184794751078</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06922708861725914</v>
+        <v>0.07300261425030531</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.25599783198367</v>
+        <v>16.48147729399828</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.42529535389279</v>
+        <v>19.90069260484148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.98058419570553</v>
+        <v>14.17280009443847</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.73505754208079</v>
+        <v>17.06801898325833</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3642290101666744</v>
+        <v>0.3697022907669531</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.413509473377095</v>
+        <v>0.4288248077140576</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3641394612835348</v>
+        <v>0.3419129522883771</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4478449326337318</v>
+        <v>0.4216091147330358</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.509055641869641</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.9590772389009294</v>
+        <v>-0.9590772389009183</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6448649486206891</v>
@@ -849,7 +849,7 @@
         <v>0.1163118646421222</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01818078935900171</v>
+        <v>-0.0181807893590015</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>19.58564226348301</v>
+        <v>19.11109992727719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.860889705018151</v>
+        <v>2.176229216205015</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.98213618548269</v>
+        <v>-4.207520260296167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.682884048633707</v>
+        <v>-9.011145429470309</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.424949061281261</v>
+        <v>0.4043928491174523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06044900449093104</v>
+        <v>0.05010535374388662</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1185836798776126</v>
+        <v>-0.125841492732439</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1372886317588093</v>
+        <v>-0.1562915648658005</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>34.69786543742448</v>
+        <v>34.7303927832816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.20522295905732</v>
+        <v>17.50430967937488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.00607054614605</v>
+        <v>10.799849624352</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.904385276156345</v>
+        <v>6.5982098035267</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9274427787120882</v>
+        <v>0.9249293524586082</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.475609270899345</v>
+        <v>0.4655931427198974</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4141781041744813</v>
+        <v>0.3950902718579044</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1195694845171463</v>
+        <v>0.1349746566787519</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>12.53923069400248</v>
+        <v>12.28685213623854</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.933042216335513</v>
+        <v>6.349361350255775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8642114849388257</v>
+        <v>0.5764384330471527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.089601860890635</v>
+        <v>-0.5239931934467149</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2784791032365517</v>
+        <v>0.2716059154790131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1405123862720287</v>
+        <v>0.1481854995710782</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01367748826222436</v>
+        <v>0.01002173864140972</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02319564895781009</v>
+        <v>-0.004232181456121083</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>26.19239913246975</v>
+        <v>26.21160709893839</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.47181975633909</v>
+        <v>20.85052012814415</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.23368459867424</v>
+        <v>15.1739155988316</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.1227845453883</v>
+        <v>15.5847373928996</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.715870366555089</v>
+        <v>0.6916648238141232</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6381357279107801</v>
+        <v>0.6259625046441889</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2915994321450185</v>
+        <v>0.2984028440859391</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4030299816590932</v>
+        <v>0.3884829609880508</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.173817597707872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11.01844560056162</v>
+        <v>11.01844560056163</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4437704134702351</v>
@@ -1049,7 +1049,7 @@
         <v>0.2631613039584842</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.274156117284167</v>
+        <v>0.2741561172841673</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.019031300419027</v>
+        <v>5.77176176389215</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.794189261395343</v>
+        <v>3.878075456635631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9500922526338723</v>
+        <v>-0.6960965310876478</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.74941086504871</v>
+        <v>3.202793190475063</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1281810458357855</v>
+        <v>0.1450685397215792</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05509189932371615</v>
+        <v>0.07577909827372382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.02691602847079067</v>
+        <v>-0.02664231518043902</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.08328768474076596</v>
+        <v>0.0733116495386463</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.68859083333518</v>
+        <v>24.73208326569661</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.525547910583</v>
+        <v>23.02841922509207</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.30476318718372</v>
+        <v>17.39071423071211</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.11227069946007</v>
+        <v>18.63192511114974</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7999973256411748</v>
+        <v>0.8478458579102345</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6046685570047525</v>
+        <v>0.5909005082118175</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6428466762448627</v>
+        <v>0.645047498626078</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5420389897150547</v>
+        <v>0.5344965728610835</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>10.44783854452652</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.710176792069856</v>
+        <v>7.710176792069823</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5817066641584436</v>
@@ -1149,7 +1149,7 @@
         <v>0.2987962901942438</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1412071251068124</v>
+        <v>0.1412071251068118</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>17.39959926308153</v>
+        <v>17.10298366463902</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.02042604112627185</v>
+        <v>-0.03496463145387179</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.232670187687924</v>
+        <v>2.640217159541165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1064896121250553</v>
+        <v>0.4852249568954111</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.353974208906369</v>
+        <v>0.3576237790776045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0008763512143499451</v>
+        <v>-0.0006312370315785771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06007983799082216</v>
+        <v>0.06913841177079508</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.006669519325969938</v>
+        <v>0.008348889483662683</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>33.21114342931251</v>
+        <v>33.14973875262988</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.20419112934496</v>
+        <v>16.49653725922034</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.39627934608796</v>
+        <v>19.23490383203886</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.37275624703829</v>
+        <v>15.80628966811796</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8578270081646733</v>
+        <v>0.8582548849958331</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4106550866034372</v>
+        <v>0.3874161921462267</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6108697963377772</v>
+        <v>0.6037170841623472</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2843049471610366</v>
+        <v>0.3147794627431928</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>10.73749490740656</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.823511799755285</v>
+        <v>2.823511799755274</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2554237886339019</v>
@@ -1249,7 +1249,7 @@
         <v>0.2795383608339004</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.05743134660785721</v>
+        <v>0.05743134660785699</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.823018574838134</v>
+        <v>5.952923410208187</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.558923790433819</v>
+        <v>5.636549592883174</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.410333528015309</v>
+        <v>5.061647021234083</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.765914030653954</v>
+        <v>-2.609932828772465</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1205846896790116</v>
+        <v>0.1271016357759557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1229913790853489</v>
+        <v>0.1274042132874666</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1297689675719995</v>
+        <v>0.1242445573622431</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05561663028877591</v>
+        <v>-0.05098579752349208</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.76682670621153</v>
+        <v>17.18335076276894</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.90357417703703</v>
+        <v>17.20734763246829</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.35707515339596</v>
+        <v>16.44517629392843</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.085465964956986</v>
+        <v>7.756423085634889</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.391748085394203</v>
+        <v>0.4071327339758796</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4382991047375175</v>
+        <v>0.4555613006216838</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4663044335264118</v>
+        <v>0.4725458769781416</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1744530812497634</v>
+        <v>0.1694056969202876</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.3294344280755368</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3053106519362886</v>
+        <v>0.3053106519362885</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.961714278178869</v>
+        <v>4.047673113775631</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.80489250164025</v>
+        <v>2.903313121991044</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.910446705386856</v>
+        <v>5.764191304425649</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.242393850128885</v>
+        <v>4.827123969793394</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09726903460368744</v>
+        <v>0.09771089761066201</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06224109404845596</v>
+        <v>0.06624241593935458</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1417260228935342</v>
+        <v>0.1682944799083213</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1306951103052062</v>
+        <v>0.1443129777751711</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.02867330424472</v>
+        <v>13.97736981037702</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.17278563380329</v>
+        <v>13.29761614675518</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15.03435185192497</v>
+        <v>15.4679396673192</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13.24225918064609</v>
+        <v>13.4396500045496</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3952269159797507</v>
+        <v>0.3868184030194927</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3398037794186662</v>
+        <v>0.3479836869795321</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5049653246032945</v>
+        <v>0.5171233914965417</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4730314256044399</v>
+        <v>0.4770496490088852</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>8.879923256312471</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7.461115543845981</v>
+        <v>7.461115543845964</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3401124185128364</v>
@@ -1449,7 +1449,7 @@
         <v>0.2279974696963817</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1640641837942219</v>
+        <v>0.1640641837942215</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>11.8421664207672</v>
+        <v>12.20951958578674</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.913806250425156</v>
+        <v>7.992847906016906</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.183743923773371</v>
+        <v>6.487290095154583</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.280497935541859</v>
+        <v>4.912124192218427</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2725633815947037</v>
+        <v>0.2779455002893035</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1741061358692133</v>
+        <v>0.1757696295392482</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1534364359408607</v>
+        <v>0.159254380520796</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1122127895204134</v>
+        <v>0.1045890277845376</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.77970809993361</v>
+        <v>16.94650365462938</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.64822088054042</v>
+        <v>12.76024019063288</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.31921478551841</v>
+        <v>11.22242435623664</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.943462243247708</v>
+        <v>9.541517972483785</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4076186052210329</v>
+        <v>0.4132091545548734</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2957495173034206</v>
+        <v>0.2996424047748146</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3012981245489668</v>
+        <v>0.2974827575037657</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2236286774109436</v>
+        <v>0.2157307244439311</v>
       </c>
     </row>
     <row r="31">
